--- a/natmiOut/OldD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.88027992477571</v>
+        <v>9.017531666666667</v>
       </c>
       <c r="H2">
-        <v>3.88027992477571</v>
+        <v>27.052595</v>
       </c>
       <c r="I2">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883475</v>
       </c>
       <c r="J2">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.9817496502132</v>
+        <v>26.93702966666667</v>
       </c>
       <c r="N2">
-        <v>13.9817496502132</v>
+        <v>80.81108900000001</v>
       </c>
       <c r="O2">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548585</v>
       </c>
       <c r="P2">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548584</v>
       </c>
       <c r="Q2">
-        <v>54.25310248096208</v>
+        <v>242.9055180251061</v>
       </c>
       <c r="R2">
-        <v>54.25310248096208</v>
+        <v>2186.149662225955</v>
       </c>
       <c r="S2">
-        <v>0.001417910689575248</v>
+        <v>0.005074089246274184</v>
       </c>
       <c r="T2">
-        <v>0.001417910689575248</v>
+        <v>0.005074089246274184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.88027992477571</v>
+        <v>9.017531666666667</v>
       </c>
       <c r="H3">
-        <v>3.88027992477571</v>
+        <v>27.052595</v>
       </c>
       <c r="I3">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883475</v>
       </c>
       <c r="J3">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>191.724138182403</v>
+        <v>191.7798513333333</v>
       </c>
       <c r="N3">
-        <v>191.724138182403</v>
+        <v>575.339554</v>
       </c>
       <c r="O3">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="P3">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="Q3">
-        <v>743.9433244841026</v>
+        <v>1729.380882426959</v>
       </c>
       <c r="R3">
-        <v>743.9433244841026</v>
+        <v>15564.42794184263</v>
       </c>
       <c r="S3">
-        <v>0.01944303908876568</v>
+        <v>0.03612529270466315</v>
       </c>
       <c r="T3">
-        <v>0.01944303908876568</v>
+        <v>0.03612529270466315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.88027992477571</v>
+        <v>9.017531666666667</v>
       </c>
       <c r="H4">
-        <v>3.88027992477571</v>
+        <v>27.052595</v>
       </c>
       <c r="I4">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883475</v>
       </c>
       <c r="J4">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>157.381526137199</v>
+        <v>172.1284333333333</v>
       </c>
       <c r="N4">
-        <v>157.381526137199</v>
+        <v>516.3853</v>
       </c>
       <c r="O4">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="P4">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="Q4">
-        <v>610.6843764007369</v>
+        <v>1552.173598317056</v>
       </c>
       <c r="R4">
-        <v>610.6843764007369</v>
+        <v>13969.5623848535</v>
       </c>
       <c r="S4">
-        <v>0.01596030209625431</v>
+        <v>0.03242358357111198</v>
       </c>
       <c r="T4">
-        <v>0.01596030209625431</v>
+        <v>0.03242358357111198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88027992477571</v>
+        <v>9.017531666666667</v>
       </c>
       <c r="H5">
-        <v>3.88027992477571</v>
+        <v>27.052595</v>
       </c>
       <c r="I5">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883475</v>
       </c>
       <c r="J5">
-        <v>0.04437666950341256</v>
+        <v>0.09025733169883476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.5025469979186</v>
+        <v>88.30755499999999</v>
       </c>
       <c r="N5">
-        <v>74.5025469979186</v>
+        <v>264.922665</v>
       </c>
       <c r="O5">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="P5">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="Q5">
-        <v>289.0907374606824</v>
+        <v>796.3161736184082</v>
       </c>
       <c r="R5">
-        <v>289.0907374606824</v>
+        <v>7166.845562565675</v>
       </c>
       <c r="S5">
-        <v>0.007555417628817311</v>
+        <v>0.01663436617678544</v>
       </c>
       <c r="T5">
-        <v>0.007555417628817311</v>
+        <v>0.01663436617678544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.7423029542996</v>
+        <v>73.986959</v>
       </c>
       <c r="H6">
-        <v>73.7423029542996</v>
+        <v>221.960877</v>
       </c>
       <c r="I6">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645015</v>
       </c>
       <c r="J6">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.9817496502132</v>
+        <v>26.93702966666667</v>
       </c>
       <c r="N6">
-        <v>13.9817496502132</v>
+        <v>80.81108900000001</v>
       </c>
       <c r="O6">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548585</v>
       </c>
       <c r="P6">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548584</v>
       </c>
       <c r="Q6">
-        <v>1031.046418537194</v>
+        <v>1992.988909529451</v>
       </c>
       <c r="R6">
-        <v>1031.046418537194</v>
+        <v>17936.90018576505</v>
       </c>
       <c r="S6">
-        <v>0.02694650944257369</v>
+        <v>0.04163183972107987</v>
       </c>
       <c r="T6">
-        <v>0.02694650944257369</v>
+        <v>0.04163183972107987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.7423029542996</v>
+        <v>73.986959</v>
       </c>
       <c r="H7">
-        <v>73.7423029542996</v>
+        <v>221.960877</v>
       </c>
       <c r="I7">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645015</v>
       </c>
       <c r="J7">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645016</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>191.724138182403</v>
+        <v>191.7798513333333</v>
       </c>
       <c r="N7">
-        <v>191.724138182403</v>
+        <v>575.339554</v>
       </c>
       <c r="O7">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="P7">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="Q7">
-        <v>14138.17948149876</v>
+        <v>14189.20799762543</v>
       </c>
       <c r="R7">
-        <v>14138.17948149876</v>
+        <v>127702.8719786289</v>
       </c>
       <c r="S7">
-        <v>0.3695028468645659</v>
+        <v>0.2964004617896633</v>
       </c>
       <c r="T7">
-        <v>0.3695028468645659</v>
+        <v>0.2964004617896633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.7423029542996</v>
+        <v>73.986959</v>
       </c>
       <c r="H8">
-        <v>73.7423029542996</v>
+        <v>221.960877</v>
       </c>
       <c r="I8">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645015</v>
       </c>
       <c r="J8">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>157.381526137199</v>
+        <v>172.1284333333333</v>
       </c>
       <c r="N8">
-        <v>157.381526137199</v>
+        <v>516.3853</v>
       </c>
       <c r="O8">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="P8">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="Q8">
-        <v>11605.67617981935</v>
+        <v>12735.25933976757</v>
       </c>
       <c r="R8">
-        <v>11605.67617981935</v>
+        <v>114617.3340579081</v>
       </c>
       <c r="S8">
-        <v>0.303315599709513</v>
+        <v>0.2660287135088817</v>
       </c>
       <c r="T8">
-        <v>0.303315599709513</v>
+        <v>0.2660287135088817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.7423029542996</v>
+        <v>73.986959</v>
       </c>
       <c r="H9">
-        <v>73.7423029542996</v>
+        <v>221.960877</v>
       </c>
       <c r="I9">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645015</v>
       </c>
       <c r="J9">
-        <v>0.8433509618027447</v>
+        <v>0.7405425061645016</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.5025469979186</v>
+        <v>88.30755499999999</v>
       </c>
       <c r="N9">
-        <v>74.5025469979186</v>
+        <v>264.922665</v>
       </c>
       <c r="O9">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="P9">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="Q9">
-        <v>5493.989391587458</v>
+        <v>6533.607451175244</v>
       </c>
       <c r="R9">
-        <v>5493.989391587458</v>
+        <v>58802.4670605772</v>
       </c>
       <c r="S9">
-        <v>0.1435860057860921</v>
+        <v>0.1364814911448766</v>
       </c>
       <c r="T9">
-        <v>0.1435860057860921</v>
+        <v>0.1364814911448766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.922732644619654</v>
+        <v>1.075612333333333</v>
       </c>
       <c r="H10">
-        <v>0.922732644619654</v>
+        <v>3.226837</v>
       </c>
       <c r="I10">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="J10">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9817496502132</v>
+        <v>26.93702966666667</v>
       </c>
       <c r="N10">
-        <v>13.9817496502132</v>
+        <v>80.81108900000001</v>
       </c>
       <c r="O10">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548585</v>
       </c>
       <c r="P10">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548584</v>
       </c>
       <c r="Q10">
-        <v>12.90141683115115</v>
+        <v>28.97380133283255</v>
       </c>
       <c r="R10">
-        <v>12.90141683115115</v>
+        <v>260.764211995493</v>
       </c>
       <c r="S10">
-        <v>0.0003371799214980275</v>
+        <v>0.00060523801584209</v>
       </c>
       <c r="T10">
-        <v>0.0003371799214980275</v>
+        <v>0.00060523801584209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.922732644619654</v>
+        <v>1.075612333333333</v>
       </c>
       <c r="H11">
-        <v>0.922732644619654</v>
+        <v>3.226837</v>
       </c>
       <c r="I11">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="J11">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>191.724138182403</v>
+        <v>191.7798513333333</v>
       </c>
       <c r="N11">
-        <v>191.724138182403</v>
+        <v>575.339554</v>
       </c>
       <c r="O11">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="P11">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="Q11">
-        <v>176.9101210624727</v>
+        <v>206.2807733789664</v>
       </c>
       <c r="R11">
-        <v>176.9101210624727</v>
+        <v>1856.526960410698</v>
       </c>
       <c r="S11">
-        <v>0.004623565110152997</v>
+        <v>0.004309029545418364</v>
       </c>
       <c r="T11">
-        <v>0.004623565110152997</v>
+        <v>0.004309029545418364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.922732644619654</v>
+        <v>1.075612333333333</v>
       </c>
       <c r="H12">
-        <v>0.922732644619654</v>
+        <v>3.226837</v>
       </c>
       <c r="I12">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="J12">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.381526137199</v>
+        <v>172.1284333333333</v>
       </c>
       <c r="N12">
-        <v>157.381526137199</v>
+        <v>516.3853</v>
       </c>
       <c r="O12">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="P12">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="Q12">
-        <v>145.2210718268548</v>
+        <v>185.1434658106778</v>
       </c>
       <c r="R12">
-        <v>145.2210718268548</v>
+        <v>1666.2911922961</v>
       </c>
       <c r="S12">
-        <v>0.003795368387773367</v>
+        <v>0.003867489205374059</v>
       </c>
       <c r="T12">
-        <v>0.003795368387773367</v>
+        <v>0.003867489205374059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.922732644619654</v>
+        <v>1.075612333333333</v>
       </c>
       <c r="H13">
-        <v>0.922732644619654</v>
+        <v>3.226837</v>
       </c>
       <c r="I13">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="J13">
-        <v>0.01055279577868679</v>
+        <v>0.01076590609688545</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.5025469979186</v>
+        <v>88.30755499999999</v>
       </c>
       <c r="N13">
-        <v>74.5025469979186</v>
+        <v>264.922665</v>
       </c>
       <c r="O13">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="P13">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="Q13">
-        <v>68.7459322222895</v>
+        <v>94.98469528451164</v>
       </c>
       <c r="R13">
-        <v>68.7459322222895</v>
+        <v>854.8622575606049</v>
       </c>
       <c r="S13">
-        <v>0.001796682359262401</v>
+        <v>0.001984149330250935</v>
       </c>
       <c r="T13">
-        <v>0.001796682359262401</v>
+        <v>0.001984149330250935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.894322650984121</v>
+        <v>15.829029</v>
       </c>
       <c r="H14">
-        <v>8.894322650984121</v>
+        <v>47.487087</v>
       </c>
       <c r="I14">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="J14">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.9817496502132</v>
+        <v>26.93702966666667</v>
       </c>
       <c r="N14">
-        <v>13.9817496502132</v>
+        <v>80.81108900000001</v>
       </c>
       <c r="O14">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548585</v>
       </c>
       <c r="P14">
-        <v>0.03195171484120075</v>
+        <v>0.05621802850548584</v>
       </c>
       <c r="Q14">
-        <v>124.3581926142806</v>
+        <v>426.3870237675271</v>
       </c>
       <c r="R14">
-        <v>124.3581926142806</v>
+        <v>3837.483213907743</v>
       </c>
       <c r="S14">
-        <v>0.00325011478755379</v>
+        <v>0.008906861522289694</v>
       </c>
       <c r="T14">
-        <v>0.00325011478755379</v>
+        <v>0.008906861522289696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.894322650984121</v>
+        <v>15.829029</v>
       </c>
       <c r="H15">
-        <v>8.894322650984121</v>
+        <v>47.487087</v>
       </c>
       <c r="I15">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="J15">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>191.724138182403</v>
+        <v>191.7798513333333</v>
       </c>
       <c r="N15">
-        <v>191.724138182403</v>
+        <v>575.339554</v>
       </c>
       <c r="O15">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="P15">
-        <v>0.4381365097096914</v>
+        <v>0.4002477363856031</v>
       </c>
       <c r="Q15">
-        <v>1705.256344976157</v>
+        <v>3035.688828371022</v>
       </c>
       <c r="R15">
-        <v>1705.256344976157</v>
+        <v>27321.1994553392</v>
       </c>
       <c r="S15">
-        <v>0.04456705864620687</v>
+        <v>0.06341295234585829</v>
       </c>
       <c r="T15">
-        <v>0.04456705864620687</v>
+        <v>0.06341295234585829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.894322650984121</v>
+        <v>15.829029</v>
       </c>
       <c r="H16">
-        <v>8.894322650984121</v>
+        <v>47.487087</v>
       </c>
       <c r="I16">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="J16">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>157.381526137199</v>
+        <v>172.1284333333333</v>
       </c>
       <c r="N16">
-        <v>157.381526137199</v>
+        <v>516.3853</v>
       </c>
       <c r="O16">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="P16">
-        <v>0.3596552484639923</v>
+        <v>0.3592349004876528</v>
       </c>
       <c r="Q16">
-        <v>1399.802072768538</v>
+        <v>2724.6259629579</v>
       </c>
       <c r="R16">
-        <v>1399.802072768538</v>
+        <v>24521.6336666211</v>
       </c>
       <c r="S16">
-        <v>0.03658397827045158</v>
+        <v>0.05691511420228503</v>
       </c>
       <c r="T16">
-        <v>0.03658397827045158</v>
+        <v>0.05691511420228505</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.894322650984121</v>
+        <v>15.829029</v>
       </c>
       <c r="H17">
-        <v>8.894322650984121</v>
+        <v>47.487087</v>
       </c>
       <c r="I17">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="J17">
-        <v>0.1017195729151559</v>
+        <v>0.1584342560397782</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>74.5025469979186</v>
+        <v>88.30755499999999</v>
       </c>
       <c r="N17">
-        <v>74.5025469979186</v>
+        <v>264.922665</v>
       </c>
       <c r="O17">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="P17">
-        <v>0.1702565269851155</v>
+        <v>0.1842993346212582</v>
       </c>
       <c r="Q17">
-        <v>662.6496913195964</v>
+        <v>1397.822849014095</v>
       </c>
       <c r="R17">
-        <v>662.6496913195964</v>
+        <v>12580.40564112686</v>
       </c>
       <c r="S17">
-        <v>0.01731842121094367</v>
+        <v>0.02919932796934517</v>
       </c>
       <c r="T17">
-        <v>0.01731842121094367</v>
+        <v>0.02919932796934518</v>
       </c>
     </row>
   </sheetData>
